--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_11_9.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_11_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1176496.76189223</v>
+        <v>-1179177.624955639</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -662,13 +662,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
@@ -710,22 +710,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>166.217102803227</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>198.9148430468326</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>70.34836947833031</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>103.0086033762676</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -832,7 +832,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>115.2653818872108</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>215.016024231527</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -902,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>45.01116538535424</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>29.40155025223552</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,10 +1054,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1066,10 +1066,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>9.004480095354603</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>134.190538133374</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>139.7003843423478</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>263.3670141589675</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,19 +1342,19 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>201.8624721274483</v>
       </c>
       <c r="U10" t="n">
-        <v>125.8468209670394</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1531,7 +1531,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>126.4643665640128</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>204.7172810333769</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.5229983365919</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1780,10 +1780,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,19 +1816,19 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>243.1373908222623</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>221.2030256723198</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>124.0908577194983</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812101</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>135.5795121770518</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>134.3542165280282</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2485,7 +2485,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>105.11626575513</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,22 +2521,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,19 +2713,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>22.1069545883392</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444127</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3007,7 +3007,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>26.703916880933</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3086,13 +3086,13 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3193,10 +3193,10 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308918</v>
       </c>
       <c r="G34" t="n">
         <v>141.2394908002291</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652629</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3661,10 +3661,10 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545295</v>
@@ -3673,13 +3673,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4138,10 +4138,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1136.221880202098</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="C2" t="n">
-        <v>1136.221880202098</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="D2" t="n">
-        <v>777.9561815953474</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="E2" t="n">
-        <v>777.9561815953474</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="F2" t="n">
         <v>771.0106808461439</v>
@@ -4322,58 +4322,58 @@
         <v>355.3059305704328</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872924</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T2" t="n">
-        <v>2394.443264962552</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U2" t="n">
-        <v>2193.519181076862</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V2" t="n">
-        <v>1862.456293733292</v>
+        <v>2028.95366720114</v>
       </c>
       <c r="W2" t="n">
-        <v>1509.687638463178</v>
+        <v>1676.185011931025</v>
       </c>
       <c r="X2" t="n">
-        <v>1136.221880202098</v>
+        <v>1572.135917611563</v>
       </c>
       <c r="Y2" t="n">
-        <v>1136.221880202098</v>
+        <v>1181.996585635751</v>
       </c>
     </row>
     <row r="3">
@@ -4389,49 +4389,49 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310614</v>
+        <v>614.5430248380235</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625332</v>
+        <v>909.2465818694952</v>
       </c>
       <c r="M3" t="n">
-        <v>956.2844025217532</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N3" t="n">
-        <v>1590.463386300792</v>
+        <v>1659.793729425661</v>
       </c>
       <c r="O3" t="n">
-        <v>1922.533821476954</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S3" t="n">
         <v>2426.617474780096</v>
@@ -4440,7 +4440,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>939.770065904978</v>
+        <v>788.8276219385416</v>
       </c>
       <c r="C4" t="n">
-        <v>770.8338829770711</v>
+        <v>619.8914390106347</v>
       </c>
       <c r="D4" t="n">
-        <v>620.7172435647353</v>
+        <v>619.8914390106347</v>
       </c>
       <c r="E4" t="n">
-        <v>620.7172435647353</v>
+        <v>471.9783454282416</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J4" t="n">
         <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4510,28 +4510,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1417.433034916129</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1194.454554110865</v>
+        <v>1419.258216810329</v>
       </c>
       <c r="U4" t="n">
-        <v>1194.454554110865</v>
+        <v>1419.258216810329</v>
       </c>
       <c r="V4" t="n">
-        <v>939.770065904978</v>
+        <v>1419.258216810329</v>
       </c>
       <c r="W4" t="n">
-        <v>939.770065904978</v>
+        <v>1419.258216810329</v>
       </c>
       <c r="X4" t="n">
-        <v>939.770065904978</v>
+        <v>1191.268665912311</v>
       </c>
       <c r="Y4" t="n">
-        <v>939.770065904978</v>
+        <v>970.4760867687813</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1313.273607737845</v>
+        <v>1192.384522157329</v>
       </c>
       <c r="C5" t="n">
-        <v>944.3110907974333</v>
+        <v>823.4220052169173</v>
       </c>
       <c r="D5" t="n">
-        <v>944.3110907974333</v>
+        <v>823.4220052169173</v>
       </c>
       <c r="E5" t="n">
-        <v>944.3110907974333</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="F5" t="n">
-        <v>533.3251860078258</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L5" t="n">
         <v>795.7553530872915</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2407.941585318307</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V5" t="n">
-        <v>2076.878697974736</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="W5" t="n">
-        <v>2076.878697974736</v>
+        <v>1955.989612394221</v>
       </c>
       <c r="X5" t="n">
-        <v>1703.412939713657</v>
+        <v>1582.523854133141</v>
       </c>
       <c r="Y5" t="n">
-        <v>1313.273607737845</v>
+        <v>1192.384522157329</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
@@ -4641,25 +4641,25 @@
         <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310614</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625332</v>
+        <v>801.9449557744472</v>
       </c>
       <c r="M6" t="n">
-        <v>1178.376567084329</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N6" t="n">
-        <v>1565.661695681274</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P6" t="n">
         <v>2447.023413292609</v>
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>515.8852429786114</v>
+        <v>518.2127024906389</v>
       </c>
       <c r="C7" t="n">
-        <v>515.8852429786114</v>
+        <v>349.2765195627319</v>
       </c>
       <c r="D7" t="n">
-        <v>515.8852429786114</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E7" t="n">
-        <v>367.9721493962183</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F7" t="n">
-        <v>367.9721493962183</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4747,28 +4747,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1439.817372234359</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T7" t="n">
-        <v>1216.838891429094</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="U7" t="n">
-        <v>1207.743456989342</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="V7" t="n">
-        <v>1207.743456989342</v>
+        <v>1056.199744578928</v>
       </c>
       <c r="W7" t="n">
-        <v>918.3262869523812</v>
+        <v>920.6537464644088</v>
       </c>
       <c r="X7" t="n">
-        <v>918.3262869523812</v>
+        <v>920.6537464644088</v>
       </c>
       <c r="Y7" t="n">
-        <v>697.5337078088511</v>
+        <v>699.8611673208786</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1471.210842731383</v>
+        <v>1532.706951134003</v>
       </c>
       <c r="C8" t="n">
-        <v>1471.210842731383</v>
+        <v>1163.744434193592</v>
       </c>
       <c r="D8" t="n">
-        <v>1330.099343395678</v>
+        <v>1163.744434193592</v>
       </c>
       <c r="E8" t="n">
-        <v>944.3110907974335</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3251860078259</v>
+        <v>366.9702768057398</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816079</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4838,16 +4838,16 @@
         <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056584</v>
+        <v>2296.312041370895</v>
       </c>
       <c r="W8" t="n">
-        <v>2231.276441056584</v>
+        <v>2296.312041370895</v>
       </c>
       <c r="X8" t="n">
-        <v>1857.810682795504</v>
+        <v>1922.846283109815</v>
       </c>
       <c r="Y8" t="n">
-        <v>1857.810682795504</v>
+        <v>1532.706951134003</v>
       </c>
     </row>
     <row r="9">
@@ -4857,52 +4857,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>590.2049751143496</v>
       </c>
       <c r="L9" t="n">
-        <v>593.9684409159568</v>
+        <v>884.9085321458213</v>
       </c>
       <c r="M9" t="n">
-        <v>957.2304598751767</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N9" t="n">
-        <v>1344.515588472122</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O9" t="n">
-        <v>1676.586023648284</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4923,7 +4923,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>620.8411572468201</v>
+        <v>498.0154176992257</v>
       </c>
       <c r="C10" t="n">
-        <v>451.9049743189132</v>
+        <v>498.0154176992257</v>
       </c>
       <c r="D10" t="n">
-        <v>451.9049743189132</v>
+        <v>347.89877828689</v>
       </c>
       <c r="E10" t="n">
-        <v>303.9918807365201</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F10" t="n">
-        <v>157.1019332386098</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G10" t="n">
-        <v>157.1019332386098</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
         <v>51.2467865680031</v>
@@ -4990,22 +4990,22 @@
         <v>1439.817372234358</v>
       </c>
       <c r="T10" t="n">
-        <v>1439.817372234358</v>
+        <v>1235.915885236936</v>
       </c>
       <c r="U10" t="n">
-        <v>1312.699371257551</v>
+        <v>946.7975477407732</v>
       </c>
       <c r="V10" t="n">
-        <v>1312.699371257551</v>
+        <v>946.7975477407732</v>
       </c>
       <c r="W10" t="n">
-        <v>1023.28220122059</v>
+        <v>946.7975477407732</v>
       </c>
       <c r="X10" t="n">
-        <v>1023.28220122059</v>
+        <v>718.8079968427559</v>
       </c>
       <c r="Y10" t="n">
-        <v>802.4896220770598</v>
+        <v>498.0154176992257</v>
       </c>
     </row>
     <row r="11">
@@ -5033,19 +5033,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014779</v>
@@ -5057,13 +5057,13 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492578</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>429.5088224239596</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L12" t="n">
-        <v>429.5088224239596</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="M12" t="n">
-        <v>1026.887310050512</v>
+        <v>1520.445529061504</v>
       </c>
       <c r="N12" t="n">
-        <v>1654.485273605118</v>
+        <v>2148.043492616111</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>781.3544215660705</v>
+        <v>917.5010142286982</v>
       </c>
       <c r="C13" t="n">
-        <v>612.4182386381636</v>
+        <v>748.5648313007913</v>
       </c>
       <c r="D13" t="n">
-        <v>612.4182386381636</v>
+        <v>598.4481918884555</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>450.5350983060624</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578601</v>
+        <v>303.645150808152</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5206,7 +5206,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5215,34 +5215,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487568</v>
+        <v>2160.315914855605</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>1871.240688199803</v>
       </c>
       <c r="V13" t="n">
-        <v>1701.202186474819</v>
+        <v>1616.556199993916</v>
       </c>
       <c r="W13" t="n">
-        <v>1411.785016437858</v>
+        <v>1327.139029956955</v>
       </c>
       <c r="X13" t="n">
-        <v>1183.79546553984</v>
+        <v>1099.149479058938</v>
       </c>
       <c r="Y13" t="n">
-        <v>963.0028863963103</v>
+        <v>1099.149479058938</v>
       </c>
     </row>
     <row r="14">
@@ -5258,7 +5258,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5270,10 +5270,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111718</v>
@@ -5282,22 +5282,22 @@
         <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L15" t="n">
-        <v>740.5562989961526</v>
+        <v>589.1422692637308</v>
       </c>
       <c r="M15" t="n">
-        <v>740.5562989961526</v>
+        <v>1186.520756890283</v>
       </c>
       <c r="N15" t="n">
-        <v>1368.15426255076</v>
+        <v>1814.11872044489</v>
       </c>
       <c r="O15" t="n">
-        <v>1920.063992790047</v>
+        <v>2366.028450684177</v>
       </c>
       <c r="P15" t="n">
-        <v>2343.687142285115</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5443,7 +5443,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
@@ -5452,7 +5452,7 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.963083580261</v>
@@ -5461,25 +5461,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T16" t="n">
-        <v>2264.108249235165</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U16" t="n">
-        <v>2018.514925172274</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1500.747069396418</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1500.747069396418</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="17">
@@ -5489,40 +5489,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.852361107581</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355936</v>
@@ -5546,19 +5546,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>139.2347658407936</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>139.2347658407936</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L18" t="n">
-        <v>634.5603720565524</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1231.938859683104</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>789.7592298206043</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C19" t="n">
-        <v>620.8230468926974</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D19" t="n">
-        <v>470.7064074803617</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E19" t="n">
-        <v>322.7933138979686</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>175.9033664000582</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000582</v>
@@ -5680,7 +5680,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570818</v>
@@ -5689,34 +5689,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
         <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1363.885660588918</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1135.8961096909</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y19" t="n">
-        <v>915.1035305473703</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="20">
@@ -5738,7 +5738,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,31 +5747,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>634.5603720565524</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1231.938859683104</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>696.7084350851671</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>527.7722521572603</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>377.6556127449245</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>377.6556127449245</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>230.7656652470141</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>230.7656652470141</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5969,13 +5969,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,25 +5984,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>680.0291294438171</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>983.3556038098242</v>
+        <v>1057.955258982919</v>
       </c>
       <c r="C25" t="n">
-        <v>847.644273983533</v>
+        <v>889.0190760550122</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711973</v>
+        <v>738.9024366426764</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888042</v>
+        <v>590.9893430602833</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2157.887856924459</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1903.203368718572</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W25" t="n">
-        <v>1613.786198681611</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="X25" t="n">
-        <v>1385.796647783594</v>
+        <v>1460.396302956689</v>
       </c>
       <c r="Y25" t="n">
-        <v>1165.004068640064</v>
+        <v>1239.603723813159</v>
       </c>
     </row>
     <row r="26">
@@ -6215,28 +6215,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>372.4964262156759</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>867.8220324314346</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1465.200520057987</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2092.798483612593</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>869.9745311434716</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
@@ -6382,52 +6382,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1500.405126015259</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1272.415575117241</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1051.622995973711</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6437,46 +6437,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362676</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6488,25 +6488,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1655.562009178173</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>707.672526468518</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>538.7363435406111</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>889.3209912987577</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6695,16 +6695,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6734,10 +6734,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
         <v>3094.515198591809</v>
@@ -6780,25 +6780,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>740.5562989961525</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1368.154262550759</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1920.063992790046</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2343.687142285114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6835,34 +6835,34 @@
         <v>926.9575315319328</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G34" t="n">
         <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6892,7 +6892,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W34" t="n">
         <v>1483.798285518751</v>
@@ -6923,16 +6923,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
         <v>378.192580311172</v>
@@ -7026,16 +7026,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2092.798483612594</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580119</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345481</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384025</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,10 +7117,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7129,13 +7129,13 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7160,7 +7160,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7260,19 +7260,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1702.079034721979</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2253.988764961266</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7318,19 +7318,19 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
         <v>483.8255460380728</v>
@@ -7354,7 +7354,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
         <v>2438.456847547834</v>
@@ -7363,7 +7363,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
@@ -7388,7 +7388,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,61 +7397,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192741</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111729</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
         <v>268.5553036345476</v>
@@ -7564,16 +7564,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7594,7 +7594,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7603,7 +7603,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
@@ -7725,25 +7725,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>924.8344286397182</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345479</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7807,7 +7807,7 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
         <v>898.2659412311323</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>193.3273467878358</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8067,19 +8067,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>249.3877325071647</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>280.1079373569276</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8298,25 +8298,25 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>211.0329012241558</v>
       </c>
       <c r="M6" t="n">
-        <v>224.3355197601772</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>305.1601501039158</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>168.7434581780643</v>
       </c>
       <c r="L9" t="n">
-        <v>0.9556134883069376</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8705,7 +8705,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>-2.86150732209499e-14</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>-3.615096445231468e-13</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9638,7 +9638,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>-2.540213379297602e-13</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -22547,10 +22547,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22565,7 +22565,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,16 +22595,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>40.44108217700675</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>257.4038889918046</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -22711,7 +22711,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22753,25 +22753,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>79.39707847452665</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>5.732671765684984</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,10 +23428,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>39.059771728256</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23464,16 +23464,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>47.42036229045107</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462252</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,25 +23698,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>43.0470835669818</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>4.506629716717384</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,25 +23887,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>55.74112246243902</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>138.4949402405068</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>4.71520066917202</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>32.89260457059962</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24373,7 +24373,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>40.30478226780122</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,22 +24409,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>145.1398665102886</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>191.8807364711618</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1045683.563321677</v>
+        <v>1045683.563321676</v>
       </c>
     </row>
     <row r="3">
@@ -26320,25 +26320,25 @@
         <v>184734.3982194636</v>
       </c>
       <c r="E2" t="n">
+        <v>181607.9849302513</v>
+      </c>
+      <c r="F2" t="n">
         <v>181607.9849302514</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>181607.9849302515</v>
+      </c>
+      <c r="H2" t="n">
         <v>181607.9849302513</v>
-      </c>
-      <c r="G2" t="n">
-        <v>181607.9849302514</v>
-      </c>
-      <c r="H2" t="n">
-        <v>181607.9849302514</v>
       </c>
       <c r="I2" t="n">
         <v>181607.9849302514</v>
       </c>
       <c r="J2" t="n">
-        <v>181607.9849302514</v>
+        <v>181607.9849302513</v>
       </c>
       <c r="K2" t="n">
-        <v>181607.9849302514</v>
+        <v>181607.9849302513</v>
       </c>
       <c r="L2" t="n">
         <v>184734.3982194636</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245461</v>
+        <v>507485.4416245464</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.71799363162</v>
+        <v>19427.71799363174</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289268</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50904.45160960677</v>
+        <v>50904.45160960671</v>
       </c>
       <c r="C4" t="n">
-        <v>133113.8635467443</v>
+        <v>133113.8635467444</v>
       </c>
       <c r="D4" t="n">
         <v>133113.8635467444</v>
       </c>
       <c r="E4" t="n">
-        <v>7507.368461719642</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719634</v>
       </c>
       <c r="G4" t="n">
         <v>7507.368461719667</v>
@@ -26436,28 +26436,28 @@
         <v>7507.368461719667</v>
       </c>
       <c r="I4" t="n">
-        <v>7507.368461719658</v>
+        <v>7507.368461719674</v>
       </c>
       <c r="J4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="K4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719713</v>
       </c>
       <c r="L4" t="n">
-        <v>15498.22772481316</v>
+        <v>15498.22772481315</v>
       </c>
       <c r="M4" t="n">
-        <v>15498.22772481314</v>
+        <v>15498.22772481313</v>
       </c>
       <c r="N4" t="n">
-        <v>15498.22772481315</v>
+        <v>15498.22772481312</v>
       </c>
       <c r="O4" t="n">
-        <v>15498.22772481312</v>
+        <v>15498.22772481313</v>
       </c>
       <c r="P4" t="n">
-        <v>15498.22772481314</v>
+        <v>15498.22772481313</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>92937.77243984472</v>
+      </c>
+      <c r="C5" t="n">
         <v>92937.7724398447</v>
-      </c>
-      <c r="C5" t="n">
-        <v>92937.77243984472</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1106267.080820482</v>
+        <v>-1106627.163836199</v>
       </c>
       <c r="C6" t="n">
-        <v>-41317.23776712541</v>
+        <v>-41317.23776712545</v>
       </c>
       <c r="D6" t="n">
-        <v>-41317.23776712528</v>
+        <v>-41317.23776712545</v>
       </c>
       <c r="E6" t="n">
-        <v>-434507.3549799215</v>
+        <v>-434542.0929053575</v>
       </c>
       <c r="F6" t="n">
-        <v>72978.08664462455</v>
+        <v>72943.34871918896</v>
       </c>
       <c r="G6" t="n">
-        <v>72978.08664462461</v>
+        <v>72943.34871918899</v>
       </c>
       <c r="H6" t="n">
-        <v>72978.08664462464</v>
+        <v>72943.34871918918</v>
       </c>
       <c r="I6" t="n">
-        <v>72978.08664462461</v>
+        <v>72943.34871918889</v>
       </c>
       <c r="J6" t="n">
-        <v>-94627.09116535794</v>
+        <v>-94661.82909079372</v>
       </c>
       <c r="K6" t="n">
-        <v>72978.08664462464</v>
+        <v>72943.34871918875</v>
       </c>
       <c r="L6" t="n">
-        <v>46644.33664710345</v>
+        <v>46644.33664710328</v>
       </c>
       <c r="M6" t="n">
-        <v>-66535.23908819165</v>
+        <v>-66535.23908819168</v>
       </c>
       <c r="N6" t="n">
-        <v>66072.05464073503</v>
+        <v>66072.05464073509</v>
       </c>
       <c r="O6" t="n">
-        <v>66072.05464073514</v>
+        <v>66072.05464073515</v>
       </c>
       <c r="P6" t="n">
         <v>66072.05464073509</v>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>4.022529435979809e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N2" t="n">
+        <v>24.28464749203969</v>
+      </c>
+      <c r="O2" t="n">
         <v>24.28464749203971</v>
       </c>
-      <c r="O2" t="n">
-        <v>24.28464749203972</v>
-      </c>
       <c r="P2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175391</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>640.584832100039</v>
+      </c>
+      <c r="C4" t="n">
         <v>640.5848321000387</v>
-      </c>
-      <c r="C4" t="n">
-        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26826,7 +26826,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>4.022529435979809e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241349</v>
+        <v>433.9106082241351</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>4.022529435979809e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27388,7 +27388,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>52.13040708162944</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>266.7224973022014</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27540,7 +27540,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27552,7 +27552,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,22 +27582,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27622,19 +27622,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>336.9192046869076</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>221.6436998762265</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27774,10 +27774,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27786,10 +27786,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.222674025846</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>152.332460203217</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>214.9826572783352</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27910,7 +27910,7 @@
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>64.38524431116736</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,19 +28062,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>18.8862238697636</v>
       </c>
       <c r="U10" t="n">
-        <v>160.3803331541612</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28144,7 +28144,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28333,7 +28333,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29806,13 +29806,13 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="38">
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="41">
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
   </sheetData>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31054,16 +31054,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31075,7 +31075,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31124,7 +31124,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31136,16 +31136,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31230,7 +31230,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31239,7 +31239,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
         <v>38.45624955336179</v>
@@ -31291,16 +31291,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
         <v>539.9786897190645</v>
@@ -31312,7 +31312,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
         <v>16.4376645838976</v>
@@ -31361,7 +31361,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31373,16 +31373,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
         <v>256.4624964168761</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31467,7 +31467,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
@@ -31476,7 +31476,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,40 +31750,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31792,7 +31792,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,37 +31835,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>585.3368606136111</v>
+        <v>551.7051287319844</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31932,7 +31932,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,40 +31987,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32029,7 +32029,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,37 +32072,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>322.8964653704897</v>
       </c>
       <c r="Q15" t="n">
-        <v>314.4610577451602</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32169,7 +32169,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,40 +32224,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817556</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32266,7 +32266,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32312,34 +32312,34 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>170.9292585737925</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32406,7 +32406,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460016</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32552,37 +32552,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>531.8166820790243</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32789,37 +32789,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>577.7447198439381</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33026,37 +33026,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>266.3926848685833</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162548</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33263,37 +33263,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>729.0844763571693</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33500,28 +33500,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>314.4610577451606</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33746,19 +33746,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>556.532545233504</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33901,7 +33901,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N38" t="n">
         <v>981.2715114159425</v>
@@ -33980,22 +33980,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>163.4402738502018</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067246</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34217,22 +34217,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>171.5999003578894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34445,7 +34445,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34454,19 +34454,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>555.0107214892114</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34699,19 +34699,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34720,7 +34720,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313206</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>640.5848321000387</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>529.7874664804599</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,13 +34854,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34869,13 +34869,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,19 +34936,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
         <v>308.745693963795</v>
@@ -34957,7 +34957,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K6" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>508.7132618620059</v>
       </c>
       <c r="M6" t="n">
-        <v>591.2668520422178</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>640.5848321000389</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q6" t="n">
         <v>116.4807223308546</v>
@@ -35091,13 +35091,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
@@ -35106,13 +35106,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35249,13 +35249,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>355.3309544215491</v>
       </c>
       <c r="L9" t="n">
-        <v>298.6359741261571</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
         <v>366.9313322820404</v>
@@ -35267,13 +35267,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
         <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>442.7406161691666</v>
+        <v>409.1088842875399</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35577,7 +35577,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.866084390239</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>188.9220579561594</v>
       </c>
       <c r="Q15" t="n">
-        <v>174.4792836591387</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35814,7 +35814,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036775</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902405</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J18" t="n">
-        <v>44.09163190712582</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
@@ -36051,7 +36051,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060455</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243148</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>393.2623022991502</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>439.190340064064</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>128.5512458942243</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462675</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>586.9504424351509</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37148,28 +37148,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>174.4792836591391</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,10 +37227,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
         <v>450.5570744930848</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37394,19 +37394,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>425.1908331501707</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,10 +37464,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
         <v>450.5570744930848</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37628,22 +37628,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>29.46586643587157</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236318714</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37865,22 +37865,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>29.46586643587111</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38102,19 +38102,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>423.6690094058781</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
